--- a/inst/extdata/HILIC_pos_sample.xlsx
+++ b/inst/extdata/HILIC_pos_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\amp\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983947B9-D2C6-4256-AB6F-9DF91CF13635}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD3D972-D112-4C0C-850A-110E20E5FD79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14292" yWindow="3516" windowWidth="20244" windowHeight="15984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1164" yWindow="4272" windowWidth="20244" windowHeight="15984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area_0_20186261710" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="328">
   <si>
     <t>Class</t>
   </si>
@@ -40,9 +40,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>HE-HA</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -764,12 +761,6 @@
   </si>
   <si>
     <t>180308SR_Saliva_HILIC_pos_226</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_227</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_228</t>
   </si>
   <si>
     <t>180308SR_Saliva_HILIC_pos_229</t>
@@ -1854,15 +1845,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IJ1162"/>
+  <dimension ref="A1:IH1162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="HQ1" workbookViewId="0">
+      <selection activeCell="IE1" sqref="IE1:IF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U1" t="s">
         <v>0</v>
       </c>
@@ -2518,10 +2509,10 @@
         <v>5</v>
       </c>
       <c r="IE1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="IF1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="IG1" t="s">
         <v>1</v>
@@ -2529,673 +2520,667 @@
       <c r="IH1" t="s">
         <v>1</v>
       </c>
-      <c r="II1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IJ1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="s">
         <v>1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="s">
         <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI2" t="s">
         <v>1</v>
       </c>
       <c r="BJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV2" t="s">
         <v>1</v>
       </c>
       <c r="BW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CI2" t="s">
         <v>1</v>
       </c>
       <c r="CJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV2" t="s">
         <v>1</v>
       </c>
       <c r="CW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DI2" t="s">
         <v>1</v>
       </c>
       <c r="DJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DV2" t="s">
         <v>1</v>
       </c>
       <c r="DW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ED2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EI2" t="s">
         <v>1</v>
       </c>
       <c r="EJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ER2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ES2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ET2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EV2" t="s">
         <v>1</v>
       </c>
       <c r="EW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FI2" t="s">
         <v>1</v>
       </c>
       <c r="FJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FV2" t="s">
         <v>1</v>
       </c>
       <c r="FW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GI2" t="s">
         <v>1</v>
       </c>
       <c r="GJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GV2" t="s">
         <v>1</v>
       </c>
       <c r="GW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HI2" t="s">
         <v>1</v>
       </c>
       <c r="HJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HV2" t="s">
         <v>1</v>
       </c>
       <c r="HW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ID2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IE2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="IF2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="IG2" t="s">
         <v>1</v>
@@ -3203,16 +3188,10 @@
       <c r="IH2" t="s">
         <v>1</v>
       </c>
-      <c r="II2" t="s">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -3866,759 +3845,747 @@
         <v>217</v>
       </c>
       <c r="IE3">
+        <v>220</v>
+      </c>
+      <c r="IF3">
+        <v>221</v>
+      </c>
+      <c r="IG3">
+        <v>222</v>
+      </c>
+      <c r="IH3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:242" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>90</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>94</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>100</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>101</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>107</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>112</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>113</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>114</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>115</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>116</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>117</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>119</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>121</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>123</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>124</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>125</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>126</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>127</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>130</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>133</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>134</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>135</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>136</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>137</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>138</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>139</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>140</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>141</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>142</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>145</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>146</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>147</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>148</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>150</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>151</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>152</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>153</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>154</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>155</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>156</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>157</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>158</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>159</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>160</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>161</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>162</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>163</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>165</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>166</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>167</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>168</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>169</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>170</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>171</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>172</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>173</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>175</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>176</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>177</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>178</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>179</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>180</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>181</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>182</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>183</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>185</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>186</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>187</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>188</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>189</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>190</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>191</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>192</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>193</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>194</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>195</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>196</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>197</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>198</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>199</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>200</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>201</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>202</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>203</v>
+      </c>
+      <c r="GN4" t="s">
+        <v>204</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>205</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>206</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>207</v>
+      </c>
+      <c r="GR4" t="s">
+        <v>208</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>209</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>210</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>211</v>
+      </c>
+      <c r="GV4" t="s">
+        <v>212</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>213</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>214</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>215</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>216</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>217</v>
+      </c>
+      <c r="HB4" t="s">
         <v>218</v>
       </c>
-      <c r="IF3">
+      <c r="HC4" t="s">
         <v>219</v>
       </c>
-      <c r="IG3">
+      <c r="HD4" t="s">
         <v>220</v>
       </c>
-      <c r="IH3">
+      <c r="HE4" t="s">
         <v>221</v>
       </c>
-      <c r="II3">
+      <c r="HF4" t="s">
         <v>222</v>
       </c>
-      <c r="IJ3">
+      <c r="HG4" t="s">
         <v>223</v>
       </c>
+      <c r="HH4" t="s">
+        <v>224</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>225</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>226</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>227</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>228</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>229</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>230</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>231</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>232</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>233</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>234</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>235</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>236</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>237</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>238</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>239</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>240</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>241</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>242</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>243</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>244</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>245</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>246</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>247</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>248</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>249</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="4" spans="1:244" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>72</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>87</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>90</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>91</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>94</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>96</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>99</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>110</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>111</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>112</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>113</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>114</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>115</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>116</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>117</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>118</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>119</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>120</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>121</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>122</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>123</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>124</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>125</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>126</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>127</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>128</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>129</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>130</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>131</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>132</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>133</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>134</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>135</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>136</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>137</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>138</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>139</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>140</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>141</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>142</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>143</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>144</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>145</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>147</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>148</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>149</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>150</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>151</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>152</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>153</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>154</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>155</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>156</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>157</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>158</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>159</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>160</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>161</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>162</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>164</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>165</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>166</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>167</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>168</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>169</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>171</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>172</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>173</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>174</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>176</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>177</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>178</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>179</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>180</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>181</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>182</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>183</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>184</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>185</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>186</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>187</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>188</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>189</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>190</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>191</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>192</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>193</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>194</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>195</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>196</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>197</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>198</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>199</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>200</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>201</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>202</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>203</v>
-      </c>
-      <c r="GM4" t="s">
-        <v>204</v>
-      </c>
-      <c r="GN4" t="s">
-        <v>205</v>
-      </c>
-      <c r="GO4" t="s">
-        <v>206</v>
-      </c>
-      <c r="GP4" t="s">
-        <v>207</v>
-      </c>
-      <c r="GQ4" t="s">
-        <v>208</v>
-      </c>
-      <c r="GR4" t="s">
-        <v>209</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>210</v>
-      </c>
-      <c r="GT4" t="s">
-        <v>211</v>
-      </c>
-      <c r="GU4" t="s">
-        <v>212</v>
-      </c>
-      <c r="GV4" t="s">
-        <v>213</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>214</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>215</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>216</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>217</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>218</v>
-      </c>
-      <c r="HB4" t="s">
-        <v>219</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>220</v>
-      </c>
-      <c r="HD4" t="s">
-        <v>221</v>
-      </c>
-      <c r="HE4" t="s">
-        <v>222</v>
-      </c>
-      <c r="HF4" t="s">
-        <v>223</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>224</v>
-      </c>
-      <c r="HH4" t="s">
-        <v>225</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>226</v>
-      </c>
-      <c r="HJ4" t="s">
-        <v>227</v>
-      </c>
-      <c r="HK4" t="s">
-        <v>228</v>
-      </c>
-      <c r="HL4" t="s">
-        <v>229</v>
-      </c>
-      <c r="HM4" t="s">
-        <v>230</v>
-      </c>
-      <c r="HN4" t="s">
-        <v>231</v>
-      </c>
-      <c r="HO4" t="s">
-        <v>232</v>
-      </c>
-      <c r="HP4" t="s">
-        <v>233</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>234</v>
-      </c>
-      <c r="HR4" t="s">
-        <v>235</v>
-      </c>
-      <c r="HS4" t="s">
-        <v>236</v>
-      </c>
-      <c r="HT4" t="s">
-        <v>237</v>
-      </c>
-      <c r="HU4" t="s">
-        <v>238</v>
-      </c>
-      <c r="HV4" t="s">
-        <v>239</v>
-      </c>
-      <c r="HW4" t="s">
-        <v>240</v>
-      </c>
-      <c r="HX4" t="s">
-        <v>241</v>
-      </c>
-      <c r="HY4" t="s">
-        <v>242</v>
-      </c>
-      <c r="HZ4" t="s">
-        <v>243</v>
-      </c>
-      <c r="IA4" t="s">
-        <v>244</v>
-      </c>
-      <c r="IB4" t="s">
-        <v>245</v>
-      </c>
-      <c r="IC4" t="s">
-        <v>246</v>
-      </c>
-      <c r="ID4" t="s">
-        <v>247</v>
-      </c>
-      <c r="IE4" t="s">
-        <v>248</v>
-      </c>
-      <c r="IF4" t="s">
-        <v>249</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>250</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>251</v>
-      </c>
-      <c r="II4" t="s">
-        <v>252</v>
-      </c>
-      <c r="IJ4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4629,10 +4596,10 @@
         <v>55.054000000000002</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G5">
         <v>0.89686100000000002</v>
@@ -4641,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -4665,10 +4632,10 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="V5">
         <v>1684197</v>
@@ -5322,25 +5289,19 @@
         <v>230809.5</v>
       </c>
       <c r="IE5">
-        <v>239973.4</v>
+        <v>441835.9</v>
       </c>
       <c r="IF5">
-        <v>264736.90000000002</v>
+        <v>207550.4</v>
       </c>
       <c r="IG5">
-        <v>441835.9</v>
+        <v>200414.8</v>
       </c>
       <c r="IH5">
-        <v>207550.4</v>
-      </c>
-      <c r="II5">
-        <v>200414.8</v>
-      </c>
-      <c r="IJ5">
         <v>210409.60000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5351,10 +5312,10 @@
         <v>56.049399999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G6">
         <v>0.3901345</v>
@@ -5363,16 +5324,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -5390,10 +5351,10 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="V6">
         <v>1004246</v>
@@ -6047,25 +6008,19 @@
         <v>599525.80000000005</v>
       </c>
       <c r="IE6">
-        <v>888109.3</v>
+        <v>693369.1</v>
       </c>
       <c r="IF6">
-        <v>651656.4</v>
+        <v>465700.8</v>
       </c>
       <c r="IG6">
-        <v>693369.1</v>
+        <v>624146.9</v>
       </c>
       <c r="IH6">
-        <v>465700.8</v>
-      </c>
-      <c r="II6">
-        <v>624146.9</v>
-      </c>
-      <c r="IJ6">
         <v>885907.8</v>
       </c>
     </row>
-    <row r="7" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6076,10 +6031,10 @@
         <v>56.049500000000002</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G7">
         <v>0.97757850000000002</v>
@@ -6088,16 +6043,16 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -6115,13 +6070,13 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V7">
         <v>566728.5</v>
@@ -6775,25 +6730,19 @@
         <v>314316</v>
       </c>
       <c r="IE7">
-        <v>339086</v>
+        <v>323290.40000000002</v>
       </c>
       <c r="IF7">
-        <v>327241.3</v>
+        <v>209970.7</v>
       </c>
       <c r="IG7">
-        <v>323290.40000000002</v>
+        <v>216559.7</v>
       </c>
       <c r="IH7">
-        <v>209970.7</v>
-      </c>
-      <c r="II7">
-        <v>216559.7</v>
-      </c>
-      <c r="IJ7">
         <v>196474.5</v>
       </c>
     </row>
-    <row r="8" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6804,10 +6753,10 @@
         <v>60.044400000000003</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G8">
         <v>0.56502240000000004</v>
@@ -6816,13 +6765,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -6840,10 +6789,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="V8">
         <v>107529.9</v>
@@ -7497,25 +7446,19 @@
         <v>85049.63</v>
       </c>
       <c r="IE8">
-        <v>152942</v>
+        <v>158807.9</v>
       </c>
       <c r="IF8">
-        <v>163693.6</v>
+        <v>108972.6</v>
       </c>
       <c r="IG8">
-        <v>158807.9</v>
+        <v>114608.5</v>
       </c>
       <c r="IH8">
-        <v>108972.6</v>
-      </c>
-      <c r="II8">
-        <v>114608.5</v>
-      </c>
-      <c r="IJ8">
         <v>92909.52</v>
       </c>
     </row>
-    <row r="9" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -7526,10 +7469,10 @@
         <v>60.080300000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G9">
         <v>0.65919280000000002</v>
@@ -7538,13 +7481,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -7562,10 +7505,10 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="V9">
         <v>93238.37</v>
@@ -8219,25 +8162,19 @@
         <v>19600.14</v>
       </c>
       <c r="IE9">
-        <v>40444.36</v>
+        <v>48631.86</v>
       </c>
       <c r="IF9">
-        <v>31657.95</v>
+        <v>27277.86</v>
       </c>
       <c r="IG9">
-        <v>48631.86</v>
+        <v>37288.14</v>
       </c>
       <c r="IH9">
-        <v>27277.86</v>
-      </c>
-      <c r="II9">
-        <v>37288.14</v>
-      </c>
-      <c r="IJ9">
         <v>30233.86</v>
       </c>
     </row>
-    <row r="10" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8248,10 +8185,10 @@
         <v>61.0396</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G10">
         <v>0.95067259999999998</v>
@@ -8260,13 +8197,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -8284,10 +8221,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="V10">
         <v>59640.72</v>
@@ -8941,25 +8878,19 @@
         <v>18891.04</v>
       </c>
       <c r="IE10">
-        <v>26332.81</v>
+        <v>41749.18</v>
       </c>
       <c r="IF10">
-        <v>19575.439999999999</v>
+        <v>22007.97</v>
       </c>
       <c r="IG10">
-        <v>41749.18</v>
+        <v>21802.25</v>
       </c>
       <c r="IH10">
-        <v>22007.97</v>
-      </c>
-      <c r="II10">
-        <v>21802.25</v>
-      </c>
-      <c r="IJ10">
         <v>18338.419999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8970,10 +8901,10 @@
         <v>64.015699999999995</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G11">
         <v>0.51121070000000002</v>
@@ -8982,13 +8913,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -9006,10 +8937,10 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="V11">
         <v>41209.14</v>
@@ -9663,25 +9594,19 @@
         <v>85027.56</v>
       </c>
       <c r="IE11">
-        <v>33495.72</v>
+        <v>74884.479999999996</v>
       </c>
       <c r="IF11">
-        <v>39243.339999999997</v>
+        <v>53180.480000000003</v>
       </c>
       <c r="IG11">
-        <v>74884.479999999996</v>
+        <v>49362.8</v>
       </c>
       <c r="IH11">
-        <v>53180.480000000003</v>
-      </c>
-      <c r="II11">
-        <v>49362.8</v>
-      </c>
-      <c r="IJ11">
         <v>45511.360000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -9692,10 +9617,10 @@
         <v>64.015799999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G12">
         <v>0.95515689999999998</v>
@@ -9704,13 +9629,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -9728,10 +9653,10 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V12">
         <v>19851.16</v>
@@ -10385,25 +10310,19 @@
         <v>12916.22</v>
       </c>
       <c r="IE12">
-        <v>16602.29</v>
+        <v>16036.72</v>
       </c>
       <c r="IF12">
-        <v>16389.63</v>
+        <v>14585.81</v>
       </c>
       <c r="IG12">
-        <v>16036.72</v>
+        <v>16776.91</v>
       </c>
       <c r="IH12">
-        <v>14585.81</v>
-      </c>
-      <c r="II12">
-        <v>16776.91</v>
-      </c>
-      <c r="IJ12">
         <v>12270.69</v>
       </c>
     </row>
-    <row r="13" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -10414,10 +10333,10 @@
         <v>70.064999999999998</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G13">
         <v>0.55605380000000004</v>
@@ -10426,16 +10345,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -10453,10 +10372,10 @@
         <v>-1</v>
       </c>
       <c r="S13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="V13">
         <v>501741.8</v>
@@ -11110,25 +11029,19 @@
         <v>309185.3</v>
       </c>
       <c r="IE13">
-        <v>301593.09999999998</v>
+        <v>336296.7</v>
       </c>
       <c r="IF13">
-        <v>347597.6</v>
+        <v>220577.4</v>
       </c>
       <c r="IG13">
-        <v>336296.7</v>
+        <v>240888.1</v>
       </c>
       <c r="IH13">
-        <v>220577.4</v>
-      </c>
-      <c r="II13">
-        <v>240888.1</v>
-      </c>
-      <c r="IJ13">
         <v>206865.1</v>
       </c>
     </row>
-    <row r="14" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -11139,10 +11052,10 @@
         <v>70.064999999999998</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G14">
         <v>0.94170399999999999</v>
@@ -11151,16 +11064,16 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -11178,13 +11091,13 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="U14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="V14">
         <v>74400.13</v>
@@ -11838,25 +11751,19 @@
         <v>34952.54</v>
       </c>
       <c r="IE14">
-        <v>23858.720000000001</v>
+        <v>18746.97</v>
       </c>
       <c r="IF14">
-        <v>40405.129999999997</v>
+        <v>12033.04</v>
       </c>
       <c r="IG14">
-        <v>18746.97</v>
+        <v>14297.97</v>
       </c>
       <c r="IH14">
-        <v>12033.04</v>
-      </c>
-      <c r="II14">
-        <v>14297.97</v>
-      </c>
-      <c r="IJ14">
         <v>15337.93</v>
       </c>
     </row>
-    <row r="15" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -11867,10 +11774,10 @@
         <v>72.080799999999996</v>
       </c>
       <c r="D15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G15">
         <v>0.63228700000000004</v>
@@ -11879,13 +11786,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -11903,10 +11810,10 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V15">
         <v>1264974</v>
@@ -12560,25 +12467,19 @@
         <v>596043.1</v>
       </c>
       <c r="IE15">
-        <v>1031006</v>
+        <v>730349.1</v>
       </c>
       <c r="IF15">
-        <v>676888.5</v>
+        <v>885523.9</v>
       </c>
       <c r="IG15">
-        <v>730349.1</v>
+        <v>1351941</v>
       </c>
       <c r="IH15">
-        <v>885523.9</v>
-      </c>
-      <c r="II15">
-        <v>1351941</v>
-      </c>
-      <c r="IJ15">
         <v>622550.9</v>
       </c>
     </row>
-    <row r="16" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -12589,13 +12490,13 @@
         <v>74.057900000000004</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G16">
         <v>0.3049327</v>
@@ -12604,13 +12505,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -12628,10 +12529,10 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="V16">
         <v>700309.6</v>
@@ -13285,25 +13186,19 @@
         <v>339546.2</v>
       </c>
       <c r="IE16">
-        <v>334377.59999999998</v>
+        <v>317734.7</v>
       </c>
       <c r="IF16">
-        <v>308764.2</v>
+        <v>332903</v>
       </c>
       <c r="IG16">
-        <v>317734.7</v>
+        <v>240057.3</v>
       </c>
       <c r="IH16">
-        <v>332903</v>
-      </c>
-      <c r="II16">
-        <v>240057.3</v>
-      </c>
-      <c r="IJ16">
         <v>280163.20000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -13314,13 +13209,13 @@
         <v>83.049000000000007</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G17">
         <v>0.79820630000000004</v>
@@ -13329,13 +13224,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -13353,10 +13248,10 @@
         <v>-1</v>
       </c>
       <c r="S17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V17">
         <v>1166844</v>
@@ -14010,25 +13905,19 @@
         <v>20746.34</v>
       </c>
       <c r="IE17">
-        <v>388079.1</v>
+        <v>584670</v>
       </c>
       <c r="IF17">
-        <v>117292.1</v>
+        <v>330531.20000000001</v>
       </c>
       <c r="IG17">
-        <v>584670</v>
+        <v>391007.1</v>
       </c>
       <c r="IH17">
-        <v>330531.20000000001</v>
-      </c>
-      <c r="II17">
-        <v>391007.1</v>
-      </c>
-      <c r="IJ17">
         <v>370898.3</v>
       </c>
     </row>
-    <row r="18" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -14039,10 +13928,10 @@
         <v>84.044499999999999</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G18">
         <v>0.44843050000000001</v>
@@ -14051,16 +13940,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -14078,10 +13967,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="V18">
         <v>230539.9</v>
@@ -14735,25 +14624,19 @@
         <v>126437.9</v>
       </c>
       <c r="IE18">
-        <v>160239.20000000001</v>
+        <v>157889.70000000001</v>
       </c>
       <c r="IF18">
-        <v>114446.3</v>
+        <v>80770.13</v>
       </c>
       <c r="IG18">
-        <v>157889.70000000001</v>
+        <v>88195.4</v>
       </c>
       <c r="IH18">
-        <v>80770.13</v>
-      </c>
-      <c r="II18">
-        <v>88195.4</v>
-      </c>
-      <c r="IJ18">
         <v>99208.52</v>
       </c>
     </row>
-    <row r="19" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -14764,10 +14647,10 @@
         <v>84.044499999999999</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G19">
         <v>0.62780270000000005</v>
@@ -14776,16 +14659,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -14803,10 +14686,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="V19">
         <v>28100.83</v>
@@ -15460,25 +15343,19 @@
         <v>26514.37</v>
       </c>
       <c r="IE19">
-        <v>19105.23</v>
+        <v>17599.03</v>
       </c>
       <c r="IF19">
-        <v>17686.439999999999</v>
+        <v>8641.0650000000005</v>
       </c>
       <c r="IG19">
-        <v>17599.03</v>
+        <v>4459.7359999999999</v>
       </c>
       <c r="IH19">
-        <v>8641.0650000000005</v>
-      </c>
-      <c r="II19">
-        <v>4459.7359999999999</v>
-      </c>
-      <c r="IJ19">
         <v>19772.04</v>
       </c>
     </row>
-    <row r="20" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -15489,10 +15366,10 @@
         <v>84.080699999999993</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G20">
         <v>0.99103140000000001</v>
@@ -15501,13 +15378,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -15525,10 +15402,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="V20">
         <v>90258.77</v>
@@ -16182,25 +16059,19 @@
         <v>20645.310000000001</v>
       </c>
       <c r="IE20">
-        <v>39042.42</v>
+        <v>54168.93</v>
       </c>
       <c r="IF20">
-        <v>41482.76</v>
+        <v>66935.3</v>
       </c>
       <c r="IG20">
-        <v>54168.93</v>
+        <v>63951.02</v>
       </c>
       <c r="IH20">
-        <v>66935.3</v>
-      </c>
-      <c r="II20">
-        <v>63951.02</v>
-      </c>
-      <c r="IJ20">
         <v>63373.62</v>
       </c>
     </row>
-    <row r="21" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -16211,10 +16082,10 @@
         <v>84.911000000000001</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G21">
         <v>0.98206280000000001</v>
@@ -16223,16 +16094,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -16250,10 +16121,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="V21">
         <v>222917.2</v>
@@ -16907,25 +16778,19 @@
         <v>327121.8</v>
       </c>
       <c r="IE21">
-        <v>315502.3</v>
+        <v>213265.8</v>
       </c>
       <c r="IF21">
-        <v>366147.3</v>
+        <v>200988.6</v>
       </c>
       <c r="IG21">
-        <v>213265.8</v>
+        <v>223733.5</v>
       </c>
       <c r="IH21">
-        <v>200988.6</v>
-      </c>
-      <c r="II21">
-        <v>223733.5</v>
-      </c>
-      <c r="IJ21">
         <v>211602.5</v>
       </c>
     </row>
-    <row r="22" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -16936,10 +16801,10 @@
         <v>86.096299999999999</v>
       </c>
       <c r="D22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G22">
         <v>0.78923770000000004</v>
@@ -16948,13 +16813,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -16972,10 +16837,10 @@
         <v>-1</v>
       </c>
       <c r="S22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="V22">
         <v>227357.2</v>
@@ -17629,25 +17494,19 @@
         <v>63676.959999999999</v>
       </c>
       <c r="IE22">
-        <v>116270.3</v>
+        <v>133887.70000000001</v>
       </c>
       <c r="IF22">
-        <v>27311.35</v>
+        <v>116369.2</v>
       </c>
       <c r="IG22">
-        <v>133887.70000000001</v>
+        <v>98439.22</v>
       </c>
       <c r="IH22">
-        <v>116369.2</v>
-      </c>
-      <c r="II22">
-        <v>98439.22</v>
-      </c>
-      <c r="IJ22">
         <v>122325.7</v>
       </c>
     </row>
-    <row r="23" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -17658,10 +17517,10 @@
         <v>86.096400000000003</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G23">
         <v>0.66816149999999996</v>
@@ -17670,16 +17529,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -17697,10 +17556,10 @@
         <v>-1</v>
       </c>
       <c r="S23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="V23">
         <v>218213</v>
@@ -18354,25 +18213,19 @@
         <v>74614.78</v>
       </c>
       <c r="IE23">
-        <v>123830.3</v>
+        <v>184692</v>
       </c>
       <c r="IF23">
-        <v>123302.3</v>
+        <v>69655.87</v>
       </c>
       <c r="IG23">
-        <v>184692</v>
+        <v>104054</v>
       </c>
       <c r="IH23">
-        <v>69655.87</v>
-      </c>
-      <c r="II23">
-        <v>104054</v>
-      </c>
-      <c r="IJ23">
         <v>110253.2</v>
       </c>
     </row>
-    <row r="24" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -18383,10 +18236,10 @@
         <v>88.039500000000004</v>
       </c>
       <c r="D24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G24">
         <v>0.95515689999999998</v>
@@ -18395,13 +18248,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -18419,10 +18272,10 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T24" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V24">
         <v>218213</v>
@@ -19076,25 +18929,19 @@
         <v>74614.78</v>
       </c>
       <c r="IE24">
-        <v>123830.3</v>
+        <v>185803.9</v>
       </c>
       <c r="IF24">
-        <v>123302.3</v>
+        <v>69022.45</v>
       </c>
       <c r="IG24">
-        <v>185803.9</v>
+        <v>106764.1</v>
       </c>
       <c r="IH24">
-        <v>69022.45</v>
-      </c>
-      <c r="II24">
-        <v>106764.1</v>
-      </c>
-      <c r="IJ24">
         <v>112726.8</v>
       </c>
     </row>
-    <row r="25" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -19105,10 +18952,10 @@
         <v>89.107399999999998</v>
       </c>
       <c r="D25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G25">
         <v>0.95964130000000003</v>
@@ -19117,13 +18964,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -19141,10 +18988,10 @@
         <v>-1</v>
       </c>
       <c r="S25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="V25">
         <v>48543.46</v>
@@ -19798,25 +19645,19 @@
         <v>4573.4589999999998</v>
       </c>
       <c r="IE25">
-        <v>75945.13</v>
+        <v>24237.51</v>
       </c>
       <c r="IF25">
-        <v>9321.3619999999992</v>
+        <v>8814.3989999999994</v>
       </c>
       <c r="IG25">
-        <v>24237.51</v>
+        <v>20760.63</v>
       </c>
       <c r="IH25">
-        <v>8814.3989999999994</v>
-      </c>
-      <c r="II25">
-        <v>20760.63</v>
-      </c>
-      <c r="IJ25">
         <v>13988.07</v>
       </c>
     </row>
-    <row r="53" spans="27:234" x14ac:dyDescent="0.25">
+    <row r="53" spans="27:234" x14ac:dyDescent="0.3">
       <c r="AA53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AJ53" s="1"/>
@@ -19856,12 +19697,12 @@
       <c r="HR53" s="1"/>
       <c r="HZ53" s="1"/>
     </row>
-    <row r="72" spans="29:187" x14ac:dyDescent="0.25">
+    <row r="72" spans="29:187" x14ac:dyDescent="0.3">
       <c r="AC72" s="1"/>
       <c r="ES72" s="1"/>
       <c r="GE72" s="1"/>
     </row>
-    <row r="87" spans="27:240" x14ac:dyDescent="0.25">
+    <row r="87" spans="27:236" x14ac:dyDescent="0.3">
       <c r="AA87" s="1"/>
       <c r="AD87" s="1"/>
       <c r="AS87" s="1"/>
@@ -19895,10 +19736,8 @@
       <c r="HN87" s="1"/>
       <c r="HQ87" s="1"/>
       <c r="HW87" s="1"/>
-      <c r="IE87" s="1"/>
-      <c r="IF87" s="1"/>
     </row>
-    <row r="90" spans="27:240" x14ac:dyDescent="0.25">
+    <row r="90" spans="27:236" x14ac:dyDescent="0.3">
       <c r="AA90" s="1"/>
       <c r="AC90" s="1"/>
       <c r="AF90" s="1"/>
@@ -19927,28 +19766,28 @@
       <c r="HR90" s="1"/>
       <c r="IB90" s="1"/>
     </row>
-    <row r="129" spans="29:187" x14ac:dyDescent="0.25">
+    <row r="129" spans="29:187" x14ac:dyDescent="0.3">
       <c r="AC129" s="1"/>
       <c r="BE129" s="1"/>
       <c r="GE129" s="1"/>
     </row>
-    <row r="149" spans="212:212" x14ac:dyDescent="0.25">
+    <row r="149" spans="212:212" x14ac:dyDescent="0.3">
       <c r="HD149" s="1"/>
     </row>
-    <row r="163" spans="209:234" x14ac:dyDescent="0.25">
+    <row r="163" spans="209:234" x14ac:dyDescent="0.3">
       <c r="HA163" s="1"/>
       <c r="HZ163" s="1"/>
     </row>
-    <row r="223" spans="29:190" x14ac:dyDescent="0.25">
+    <row r="223" spans="29:190" x14ac:dyDescent="0.3">
       <c r="AC223" s="1"/>
       <c r="GE223" s="1"/>
       <c r="GH223" s="1"/>
     </row>
-    <row r="226" spans="187:190" x14ac:dyDescent="0.25">
+    <row r="226" spans="187:190" x14ac:dyDescent="0.3">
       <c r="GE226" s="1"/>
       <c r="GH226" s="1"/>
     </row>
-    <row r="322" spans="27:239" x14ac:dyDescent="0.25">
+    <row r="322" spans="27:236" x14ac:dyDescent="0.3">
       <c r="AA322" s="1"/>
       <c r="AC322" s="1"/>
       <c r="AT322" s="1"/>
@@ -19957,50 +19796,49 @@
       <c r="GH322" s="1"/>
       <c r="IB322" s="1"/>
     </row>
-    <row r="332" spans="27:239" x14ac:dyDescent="0.25">
+    <row r="332" spans="27:236" x14ac:dyDescent="0.3">
       <c r="AC332" s="1"/>
       <c r="GE332" s="1"/>
       <c r="GH332" s="1"/>
     </row>
-    <row r="333" spans="27:239" x14ac:dyDescent="0.25">
+    <row r="333" spans="27:236" x14ac:dyDescent="0.3">
       <c r="DH333" s="1"/>
       <c r="EO333" s="1"/>
       <c r="ET333" s="1"/>
       <c r="FP333" s="1"/>
       <c r="GT333" s="1"/>
       <c r="HR333" s="1"/>
-      <c r="IE333" s="1"/>
     </row>
-    <row r="407" spans="187:187" x14ac:dyDescent="0.25">
+    <row r="407" spans="187:187" x14ac:dyDescent="0.3">
       <c r="GE407" s="1"/>
     </row>
-    <row r="446" spans="29:190" x14ac:dyDescent="0.25">
+    <row r="446" spans="29:190" x14ac:dyDescent="0.3">
       <c r="AC446" s="1"/>
       <c r="GE446" s="1"/>
       <c r="GH446" s="1"/>
     </row>
-    <row r="477" spans="88:226" x14ac:dyDescent="0.25">
+    <row r="477" spans="88:226" x14ac:dyDescent="0.3">
       <c r="CJ477" s="1"/>
       <c r="HR477" s="1"/>
     </row>
-    <row r="548" spans="51:51" x14ac:dyDescent="0.25">
+    <row r="548" spans="51:51" x14ac:dyDescent="0.3">
       <c r="AY548" s="1"/>
     </row>
-    <row r="776" spans="29:236" x14ac:dyDescent="0.25">
+    <row r="776" spans="29:236" x14ac:dyDescent="0.3">
       <c r="AC776" s="1"/>
       <c r="BL776" s="1"/>
       <c r="GB776" s="1"/>
       <c r="GH776" s="1"/>
       <c r="IB776" s="1"/>
     </row>
-    <row r="1029" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="1029" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA1029" s="1"/>
     </row>
-    <row r="1079" spans="149:218" x14ac:dyDescent="0.25">
+    <row r="1079" spans="149:218" x14ac:dyDescent="0.3">
       <c r="ES1079" s="1"/>
       <c r="HJ1079" s="1"/>
     </row>
-    <row r="1162" spans="31:236" x14ac:dyDescent="0.25">
+    <row r="1162" spans="31:236" x14ac:dyDescent="0.3">
       <c r="AE1162" s="1"/>
       <c r="AX1162" s="1"/>
       <c r="AZ1162" s="1"/>
@@ -20034,21 +19872,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010038235D0575450E4D9009B3EC36509618" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="d43fa768a87849c7a999e5e5e465285d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7746a6f8-0bb5-496b-bf25-a73b1813b983" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6e9d1849f57ad8b3a2dd183d329834d" ns2:_="">
     <xsd:import namespace="7746a6f8-0bb5-496b-bf25-a73b1813b983"/>
@@ -20194,24 +20017,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D13DB352-349E-442E-A6C7-988FB8BED4D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4C25D04-767B-4978-816E-4424818623DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C75E3B-AD54-4988-81CC-A752AE1E0E34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20227,4 +20048,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4C25D04-767B-4978-816E-4424818623DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D13DB352-349E-442E-A6C7-988FB8BED4D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/HILIC_pos_sample.xlsx
+++ b/inst/extdata/HILIC_pos_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\amp\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\notame\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD3D972-D112-4C0C-850A-110E20E5FD79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E793E57-13F2-4B30-BE59-98B2D67459AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="4272" windowWidth="20244" windowHeight="15984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="2064" windowWidth="34884" windowHeight="20652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area_0_20186261710" sheetId="1" r:id="rId1"/>
@@ -112,669 +112,6 @@
     <t>MS/MS spectrum</t>
   </si>
   <si>
-    <t>180308SR_Saliva_HILIC_pos_010</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_011</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_012</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_013</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_014</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_015</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_016</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_017</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_018</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_019</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_020</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_021</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_022</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_023</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_024</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_025</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_026</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_027</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_028</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_029</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_030</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_031</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_032</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_033</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_034</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_035</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_036</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_037</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_038</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_039</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_040</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_041</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_042</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_043</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_044</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_045</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_046</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_047</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_048</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_049</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_050</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_051</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_052</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_053</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_054</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_055</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_056</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_057</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_058</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_059</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_060</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_061</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_062</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_063</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_064</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_065</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_066</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_067</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_068</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_069</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_070</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_071</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_072</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_073</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_074</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_075</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_076</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_077</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_078</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_079</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_080</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_081</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_082</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_083</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_084</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_085</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_086</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_087</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_088</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_089</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_090</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_091</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_092</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_093</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_094</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_095</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_096</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_097</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_098</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_099</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_100</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_101</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_102</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_103</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_104</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_105</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_106</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_107</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_108</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_109</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_110</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_111</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_112</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_113</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_114</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_115</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_116</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_117</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_118</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_119</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_120</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_121</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_122</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_123</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_124</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_125</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_126</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_127</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_128</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_129</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_130</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_131</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_132</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_133</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_134</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_135</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_136</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_137</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_138</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_139</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_140</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_141</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_142</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_143</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_144</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_145</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_146</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_147</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_148</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_149</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_150</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_151</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_152</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_153</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_154</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_155</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_156</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_157</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_158</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_159</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_160</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_161</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_162</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_163</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_164</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_165</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_166</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_167</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_168</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_169</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_170</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_171</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_172</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_173</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_174</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_175</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_176</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_177</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_178</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_179</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_180</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_181</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_182</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_183</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_184</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_185</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_186</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_187</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_188</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_189</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_190</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_191</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_192</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_193</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_194</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_195</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_196</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_197</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_198</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_199</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_200</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_201</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_202</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_203</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_204</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_205</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_206</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_207</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_208</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_209</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_210</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_211</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_212</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_213</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_214</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_215</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_216</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_217</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_218</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_219</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_220</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_221</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_222</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_223</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_224</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_225</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_226</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_229</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_230</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_231</t>
-  </si>
-  <si>
-    <t>180308SR_Saliva_HILIC_pos_232</t>
-  </si>
-  <si>
     <t>w/o MS2:Crotyl alcohol</t>
   </si>
   <si>
@@ -1004,6 +341,669 @@
   </si>
   <si>
     <t>89.10651:46706 90.10986:2721 91.11322:0</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_010</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_011</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_012</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_013</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_014</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_015</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_016</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_017</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_018</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_019</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_020</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_021</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_022</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_023</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_024</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_025</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_026</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_027</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_028</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_029</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_030</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_031</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_032</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_033</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_034</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_035</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_036</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_037</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_038</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_039</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_040</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_041</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_042</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_043</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_044</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_045</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_046</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_047</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_048</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_049</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_050</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_051</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_052</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_053</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_054</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_055</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_056</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_057</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_058</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_059</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_060</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_061</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_062</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_063</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_064</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_065</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_066</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_067</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_068</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_069</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_070</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_071</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_072</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_073</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_074</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_075</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_076</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_077</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_078</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_079</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_080</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_081</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_082</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_083</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_084</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_085</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_086</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_087</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_088</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_089</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_090</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_091</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_092</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_093</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_094</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_095</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_096</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_097</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_098</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_099</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_100</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_101</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_102</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_103</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_104</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_105</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_106</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_107</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_108</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_109</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_110</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_111</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_112</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_113</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_114</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_115</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_116</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_117</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_118</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_119</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_120</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_121</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_122</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_123</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_124</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_125</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_126</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_127</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_128</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_129</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_130</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_131</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_132</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_133</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_134</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_135</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_136</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_137</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_138</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_139</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_140</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_141</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_142</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_143</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_144</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_145</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_146</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_147</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_148</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_149</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_150</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_151</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_152</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_153</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_154</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_155</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_156</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_157</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_158</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_159</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_160</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_161</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_162</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_163</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_164</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_165</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_166</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_167</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_168</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_169</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_170</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_171</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_172</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_173</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_174</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_175</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_176</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_177</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_178</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_179</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_180</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_181</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_182</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_183</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_184</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_185</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_186</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_187</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_188</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_189</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_190</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_191</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_192</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_193</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_194</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_195</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_196</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_197</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_198</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_199</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_200</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_201</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_202</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_203</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_204</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_205</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_206</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_207</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_208</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_209</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_210</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_211</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_212</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_213</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_214</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_215</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_216</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_217</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_218</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_219</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_220</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_221</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_222</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_223</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_224</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_225</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_226</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_229</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_230</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_231</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_pos_232</t>
   </si>
 </sst>
 </file>
@@ -1847,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IH1162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HQ1" workbookViewId="0">
-      <selection activeCell="IE1" sqref="IE1:IF1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3922,667 +3922,667 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="Y4" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="Z4" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="AA4" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="AB4" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="AC4" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="AD4" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="AE4" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="AF4" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AG4" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="AH4" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="AI4" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="AK4" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="AL4" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="AM4" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="AN4" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="AO4" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="AP4" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="AQ4" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="AR4" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="AS4" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="AT4" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="AU4" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="AV4" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="AW4" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="AX4" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="AY4" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="AZ4" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="BA4" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="BB4" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="BC4" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="BD4" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="BE4" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="BF4" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="BG4" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="BH4" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="BI4" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="BJ4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="BK4" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="BL4" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="BM4" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="BN4" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="BO4" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="BP4" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="BQ4" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="BR4" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="BS4" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="BT4" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="BU4" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="BV4" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="BW4" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="BX4" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="BY4" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="BZ4" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="CA4" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="CB4" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="CC4" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="CD4" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="CE4" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="CF4" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="CG4" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="CH4" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="CI4" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="CJ4" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="CK4" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="CL4" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="CM4" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="CN4" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="CO4" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="CP4" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="CQ4" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="CR4" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="CS4" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="CT4" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="CU4" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="CV4" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="CW4" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="CX4" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="CY4" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="CZ4" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="DA4" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="DB4" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="DC4" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="DD4" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="DE4" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="DF4" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="DG4" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="DH4" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="DI4" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="DJ4" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="DK4" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="DL4" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="DM4" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="DN4" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="DO4" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="DP4" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="DQ4" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="DR4" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="DS4" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="DT4" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="DU4" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="DV4" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="DW4" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="DX4" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="DY4" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="DZ4" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="EA4" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="EB4" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="EC4" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="ED4" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="EE4" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="EF4" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="EG4" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="EH4" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="EI4" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="EJ4" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="EK4" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="EL4" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="EM4" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="EN4" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="EO4" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="EP4" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="EQ4" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="ER4" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="ES4" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="ET4" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="EU4" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="EV4" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="EW4" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="EX4" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="EY4" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="EZ4" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="FA4" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="FB4" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="FC4" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="FD4" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="FE4" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="FF4" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="FG4" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="FH4" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="FI4" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="FJ4" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="FK4" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="FL4" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="FM4" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="FN4" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="FO4" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="FP4" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="FQ4" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="FR4" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="FS4" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="FT4" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="FU4" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="FV4" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="FW4" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="FX4" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="FY4" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="FZ4" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="GA4" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="GB4" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="GC4" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="GD4" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="GE4" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="GF4" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="GG4" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="GH4" t="s">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="GI4" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="GJ4" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="GK4" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="GL4" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="GM4" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="GN4" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="GO4" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="GP4" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="GQ4" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="GR4" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="GS4" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="GT4" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="GU4" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="GV4" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="GW4" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="GX4" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="GY4" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="GZ4" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="HA4" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="HB4" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="HC4" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="HD4" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="HE4" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="HF4" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="HG4" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="HH4" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="HI4" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="HJ4" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="HK4" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="HL4" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="HM4" t="s">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="HN4" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="HO4" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="HP4" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="HQ4" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="HR4" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
       <c r="HS4" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="HT4" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="HU4" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="HV4" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="HW4" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="HX4" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="HY4" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="HZ4" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="IA4" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="IB4" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="IC4" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="ID4" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="IE4" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="IF4" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="IG4" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="IH4" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:242" x14ac:dyDescent="0.3">
@@ -4596,10 +4596,10 @@
         <v>55.054000000000002</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>0.89686100000000002</v>
@@ -4608,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -4632,10 +4632,10 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="T5" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="V5">
         <v>1684197</v>
@@ -5312,10 +5312,10 @@
         <v>56.049399999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>0.3901345</v>
@@ -5324,16 +5324,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -5351,10 +5351,10 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="T6" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="V6">
         <v>1004246</v>
@@ -6031,10 +6031,10 @@
         <v>56.049500000000002</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>0.97757850000000002</v>
@@ -6043,16 +6043,16 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -6070,13 +6070,13 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="T7" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="V7">
         <v>566728.5</v>
@@ -6753,10 +6753,10 @@
         <v>60.044400000000003</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>0.56502240000000004</v>
@@ -6765,13 +6765,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -6789,10 +6789,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="T8" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="V8">
         <v>107529.9</v>
@@ -7469,10 +7469,10 @@
         <v>60.080300000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>0.65919280000000002</v>
@@ -7481,13 +7481,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -7505,10 +7505,10 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="T9" t="s">
-        <v>271</v>
+        <v>50</v>
       </c>
       <c r="V9">
         <v>93238.37</v>
@@ -8185,10 +8185,10 @@
         <v>61.0396</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>0.95067259999999998</v>
@@ -8197,13 +8197,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>275</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -8221,10 +8221,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="T10" t="s">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="V10">
         <v>59640.72</v>
@@ -8901,10 +8901,10 @@
         <v>64.015699999999995</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>0.51121070000000002</v>
@@ -8913,13 +8913,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>279</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s">
-        <v>280</v>
+        <v>59</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -8937,10 +8937,10 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="T11" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="V11">
         <v>41209.14</v>
@@ -9617,10 +9617,10 @@
         <v>64.015799999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>0.95515689999999998</v>
@@ -9629,13 +9629,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>279</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>280</v>
+        <v>59</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -9653,10 +9653,10 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="T12" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="V12">
         <v>19851.16</v>
@@ -10333,10 +10333,10 @@
         <v>70.064999999999998</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>0.55605380000000004</v>
@@ -10345,16 +10345,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -10372,10 +10372,10 @@
         <v>-1</v>
       </c>
       <c r="S13" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="T13" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="V13">
         <v>501741.8</v>
@@ -11052,10 +11052,10 @@
         <v>70.064999999999998</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>0.94170399999999999</v>
@@ -11064,16 +11064,16 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -11091,13 +11091,13 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="T14" t="s">
-        <v>284</v>
+        <v>63</v>
       </c>
       <c r="U14" t="s">
-        <v>285</v>
+        <v>64</v>
       </c>
       <c r="V14">
         <v>74400.13</v>
@@ -11774,10 +11774,10 @@
         <v>72.080799999999996</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>0.63228700000000004</v>
@@ -11786,13 +11786,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>287</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s">
-        <v>289</v>
+        <v>68</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -11810,10 +11810,10 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="T15" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="V15">
         <v>1264974</v>
@@ -12490,13 +12490,13 @@
         <v>74.057900000000004</v>
       </c>
       <c r="D16" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="G16">
         <v>0.3049327</v>
@@ -12505,13 +12505,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>293</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -12529,10 +12529,10 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="T16" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="V16">
         <v>700309.6</v>
@@ -13209,13 +13209,13 @@
         <v>83.049000000000007</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="G17">
         <v>0.79820630000000004</v>
@@ -13224,13 +13224,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -13248,10 +13248,10 @@
         <v>-1</v>
       </c>
       <c r="S17" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="T17" t="s">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="V17">
         <v>1166844</v>
@@ -13928,10 +13928,10 @@
         <v>84.044499999999999</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>0.44843050000000001</v>
@@ -13940,16 +13940,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L18" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -13967,10 +13967,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="T18" t="s">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="V18">
         <v>230539.9</v>
@@ -14647,10 +14647,10 @@
         <v>84.044499999999999</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>0.62780270000000005</v>
@@ -14659,16 +14659,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L19" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -14686,10 +14686,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="T19" t="s">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="V19">
         <v>28100.83</v>
@@ -15366,10 +15366,10 @@
         <v>84.080699999999993</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>0.99103140000000001</v>
@@ -15378,13 +15378,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s">
-        <v>309</v>
+        <v>88</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -15402,10 +15402,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="T20" t="s">
-        <v>310</v>
+        <v>89</v>
       </c>
       <c r="V20">
         <v>90258.77</v>
@@ -16082,10 +16082,10 @@
         <v>84.911000000000001</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>0.98206280000000001</v>
@@ -16094,16 +16094,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -16121,10 +16121,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="T21" t="s">
-        <v>311</v>
+        <v>90</v>
       </c>
       <c r="V21">
         <v>222917.2</v>
@@ -16801,10 +16801,10 @@
         <v>86.096299999999999</v>
       </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>0.78923770000000004</v>
@@ -16813,13 +16813,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>313</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
       <c r="L22" t="s">
-        <v>315</v>
+        <v>94</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -16837,10 +16837,10 @@
         <v>-1</v>
       </c>
       <c r="S22" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="T22" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="V22">
         <v>227357.2</v>
@@ -17517,10 +17517,10 @@
         <v>86.096400000000003</v>
       </c>
       <c r="D23" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>0.66816149999999996</v>
@@ -17529,16 +17529,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -17556,10 +17556,10 @@
         <v>-1</v>
       </c>
       <c r="S23" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="T23" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="V23">
         <v>218213</v>
@@ -18236,10 +18236,10 @@
         <v>88.039500000000004</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>0.95515689999999998</v>
@@ -18248,13 +18248,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>319</v>
+        <v>98</v>
       </c>
       <c r="K24" t="s">
-        <v>320</v>
+        <v>99</v>
       </c>
       <c r="L24" t="s">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -18272,10 +18272,10 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="T24" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="V24">
         <v>218213</v>
@@ -18952,10 +18952,10 @@
         <v>89.107399999999998</v>
       </c>
       <c r="D25" t="s">
-        <v>323</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>0.95964130000000003</v>
@@ -18964,13 +18964,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s">
-        <v>325</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -18988,10 +18988,10 @@
         <v>-1</v>
       </c>
       <c r="S25" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="T25" t="s">
-        <v>327</v>
+        <v>106</v>
       </c>
       <c r="V25">
         <v>48543.46</v>
@@ -19872,6 +19872,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010038235D0575450E4D9009B3EC36509618" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="d43fa768a87849c7a999e5e5e465285d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7746a6f8-0bb5-496b-bf25-a73b1813b983" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6e9d1849f57ad8b3a2dd183d329834d" ns2:_="">
     <xsd:import namespace="7746a6f8-0bb5-496b-bf25-a73b1813b983"/>
@@ -20017,15 +20026,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -20033,6 +20033,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4C25D04-767B-4978-816E-4424818623DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C75E3B-AD54-4988-81CC-A752AE1E0E34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20050,14 +20058,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4C25D04-767B-4978-816E-4424818623DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D13DB352-349E-442E-A6C7-988FB8BED4D1}">
   <ds:schemaRefs>

--- a/inst/extdata/HILIC_pos_sample.xlsx
+++ b/inst/extdata/HILIC_pos_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\notame\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E793E57-13F2-4B30-BE59-98B2D67459AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710D53AE-64EF-46AD-A66F-4C743667DCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="2064" windowWidth="34884" windowHeight="20652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="684" yWindow="5712" windowWidth="31068" windowHeight="18804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area_0_20186261710" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>56.04976:4077 57.05311:725 58.05647:0</t>
   </si>
   <si>
-    <t>28.018 (100), 56.049 (71), 24.422 (19), 56.075 (6), 48.173 (6), 28.04 (4)</t>
-  </si>
-  <si>
     <t>w/o MS2:N-Methylformamide</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>70.06548:6136 71.06883:195 72.07219:975</t>
   </si>
   <si>
-    <t>70.064 (100), 68.05 (9), 44.049 (7), 43.054 (5), 70.284 (2), 70.121 (1)</t>
-  </si>
-  <si>
     <t>w/o MS2:Pyrrolidine</t>
   </si>
   <si>
@@ -1004,6 +998,12 @@
   </si>
   <si>
     <t>Example_project_HILIC_pos_232</t>
+  </si>
+  <si>
+    <t>24.422:50 28.018:252 28.04:10 48.173:16 56.049:167 56.075:17</t>
+  </si>
+  <si>
+    <t>43.054:7 44.049:10 68.05:14 70.064:150 70.121:1 70.284:3</t>
   </si>
 </sst>
 </file>
@@ -1848,10 +1848,13 @@
   <dimension ref="A1:IH1162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="21" max="21" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U1" t="s">
@@ -3922,667 +3925,667 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
+        <v>105</v>
+      </c>
+      <c r="W4" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" t="s">
         <v>107</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>108</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>109</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>110</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>111</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>112</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>113</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>115</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>116</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>117</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>118</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AJ4" t="s">
         <v>119</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>124</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>125</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
         <v>126</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
         <v>127</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AS4" t="s">
         <v>128</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AT4" t="s">
         <v>129</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AU4" t="s">
         <v>130</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AV4" t="s">
         <v>131</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AW4" t="s">
         <v>132</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AX4" t="s">
         <v>133</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AY4" t="s">
         <v>134</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AZ4" t="s">
         <v>135</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BA4" t="s">
         <v>136</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BB4" t="s">
         <v>137</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BC4" t="s">
         <v>138</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BD4" t="s">
         <v>139</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BE4" t="s">
         <v>140</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BF4" t="s">
         <v>141</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BG4" t="s">
         <v>142</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>143</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BI4" t="s">
         <v>144</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BJ4" t="s">
         <v>145</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BK4" t="s">
         <v>146</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BL4" t="s">
         <v>147</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BM4" t="s">
         <v>148</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BN4" t="s">
         <v>149</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BO4" t="s">
         <v>150</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BP4" t="s">
         <v>151</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BQ4" t="s">
         <v>152</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BR4" t="s">
         <v>153</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BS4" t="s">
         <v>154</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BT4" t="s">
         <v>155</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BU4" t="s">
         <v>156</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BV4" t="s">
         <v>157</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BW4" t="s">
         <v>158</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BX4" t="s">
         <v>159</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BY4" t="s">
         <v>160</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="BZ4" t="s">
         <v>161</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="CA4" t="s">
         <v>162</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="CB4" t="s">
         <v>163</v>
       </c>
-      <c r="CA4" t="s">
+      <c r="CC4" t="s">
         <v>164</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CD4" t="s">
         <v>165</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="CE4" t="s">
         <v>166</v>
       </c>
-      <c r="CD4" t="s">
+      <c r="CF4" t="s">
         <v>167</v>
       </c>
-      <c r="CE4" t="s">
+      <c r="CG4" t="s">
         <v>168</v>
       </c>
-      <c r="CF4" t="s">
+      <c r="CH4" t="s">
         <v>169</v>
       </c>
-      <c r="CG4" t="s">
+      <c r="CI4" t="s">
         <v>170</v>
       </c>
-      <c r="CH4" t="s">
+      <c r="CJ4" t="s">
         <v>171</v>
       </c>
-      <c r="CI4" t="s">
+      <c r="CK4" t="s">
         <v>172</v>
       </c>
-      <c r="CJ4" t="s">
+      <c r="CL4" t="s">
         <v>173</v>
       </c>
-      <c r="CK4" t="s">
+      <c r="CM4" t="s">
         <v>174</v>
       </c>
-      <c r="CL4" t="s">
+      <c r="CN4" t="s">
         <v>175</v>
       </c>
-      <c r="CM4" t="s">
+      <c r="CO4" t="s">
         <v>176</v>
       </c>
-      <c r="CN4" t="s">
+      <c r="CP4" t="s">
         <v>177</v>
       </c>
-      <c r="CO4" t="s">
+      <c r="CQ4" t="s">
         <v>178</v>
       </c>
-      <c r="CP4" t="s">
+      <c r="CR4" t="s">
         <v>179</v>
       </c>
-      <c r="CQ4" t="s">
+      <c r="CS4" t="s">
         <v>180</v>
       </c>
-      <c r="CR4" t="s">
+      <c r="CT4" t="s">
         <v>181</v>
       </c>
-      <c r="CS4" t="s">
+      <c r="CU4" t="s">
         <v>182</v>
       </c>
-      <c r="CT4" t="s">
+      <c r="CV4" t="s">
         <v>183</v>
       </c>
-      <c r="CU4" t="s">
+      <c r="CW4" t="s">
         <v>184</v>
       </c>
-      <c r="CV4" t="s">
+      <c r="CX4" t="s">
         <v>185</v>
       </c>
-      <c r="CW4" t="s">
+      <c r="CY4" t="s">
         <v>186</v>
       </c>
-      <c r="CX4" t="s">
+      <c r="CZ4" t="s">
         <v>187</v>
       </c>
-      <c r="CY4" t="s">
+      <c r="DA4" t="s">
         <v>188</v>
       </c>
-      <c r="CZ4" t="s">
+      <c r="DB4" t="s">
         <v>189</v>
       </c>
-      <c r="DA4" t="s">
+      <c r="DC4" t="s">
         <v>190</v>
       </c>
-      <c r="DB4" t="s">
+      <c r="DD4" t="s">
         <v>191</v>
       </c>
-      <c r="DC4" t="s">
+      <c r="DE4" t="s">
         <v>192</v>
       </c>
-      <c r="DD4" t="s">
+      <c r="DF4" t="s">
         <v>193</v>
       </c>
-      <c r="DE4" t="s">
+      <c r="DG4" t="s">
         <v>194</v>
       </c>
-      <c r="DF4" t="s">
+      <c r="DH4" t="s">
         <v>195</v>
       </c>
-      <c r="DG4" t="s">
+      <c r="DI4" t="s">
         <v>196</v>
       </c>
-      <c r="DH4" t="s">
+      <c r="DJ4" t="s">
         <v>197</v>
       </c>
-      <c r="DI4" t="s">
+      <c r="DK4" t="s">
         <v>198</v>
       </c>
-      <c r="DJ4" t="s">
+      <c r="DL4" t="s">
         <v>199</v>
       </c>
-      <c r="DK4" t="s">
+      <c r="DM4" t="s">
         <v>200</v>
       </c>
-      <c r="DL4" t="s">
+      <c r="DN4" t="s">
         <v>201</v>
       </c>
-      <c r="DM4" t="s">
+      <c r="DO4" t="s">
         <v>202</v>
       </c>
-      <c r="DN4" t="s">
+      <c r="DP4" t="s">
         <v>203</v>
       </c>
-      <c r="DO4" t="s">
+      <c r="DQ4" t="s">
         <v>204</v>
       </c>
-      <c r="DP4" t="s">
+      <c r="DR4" t="s">
         <v>205</v>
       </c>
-      <c r="DQ4" t="s">
+      <c r="DS4" t="s">
         <v>206</v>
       </c>
-      <c r="DR4" t="s">
+      <c r="DT4" t="s">
         <v>207</v>
       </c>
-      <c r="DS4" t="s">
+      <c r="DU4" t="s">
         <v>208</v>
       </c>
-      <c r="DT4" t="s">
+      <c r="DV4" t="s">
         <v>209</v>
       </c>
-      <c r="DU4" t="s">
+      <c r="DW4" t="s">
         <v>210</v>
       </c>
-      <c r="DV4" t="s">
+      <c r="DX4" t="s">
         <v>211</v>
       </c>
-      <c r="DW4" t="s">
+      <c r="DY4" t="s">
         <v>212</v>
       </c>
-      <c r="DX4" t="s">
+      <c r="DZ4" t="s">
         <v>213</v>
       </c>
-      <c r="DY4" t="s">
+      <c r="EA4" t="s">
         <v>214</v>
       </c>
-      <c r="DZ4" t="s">
+      <c r="EB4" t="s">
         <v>215</v>
       </c>
-      <c r="EA4" t="s">
+      <c r="EC4" t="s">
         <v>216</v>
       </c>
-      <c r="EB4" t="s">
+      <c r="ED4" t="s">
         <v>217</v>
       </c>
-      <c r="EC4" t="s">
+      <c r="EE4" t="s">
         <v>218</v>
       </c>
-      <c r="ED4" t="s">
+      <c r="EF4" t="s">
         <v>219</v>
       </c>
-      <c r="EE4" t="s">
+      <c r="EG4" t="s">
         <v>220</v>
       </c>
-      <c r="EF4" t="s">
+      <c r="EH4" t="s">
         <v>221</v>
       </c>
-      <c r="EG4" t="s">
+      <c r="EI4" t="s">
         <v>222</v>
       </c>
-      <c r="EH4" t="s">
+      <c r="EJ4" t="s">
         <v>223</v>
       </c>
-      <c r="EI4" t="s">
+      <c r="EK4" t="s">
         <v>224</v>
       </c>
-      <c r="EJ4" t="s">
+      <c r="EL4" t="s">
         <v>225</v>
       </c>
-      <c r="EK4" t="s">
+      <c r="EM4" t="s">
         <v>226</v>
       </c>
-      <c r="EL4" t="s">
+      <c r="EN4" t="s">
         <v>227</v>
       </c>
-      <c r="EM4" t="s">
+      <c r="EO4" t="s">
         <v>228</v>
       </c>
-      <c r="EN4" t="s">
+      <c r="EP4" t="s">
         <v>229</v>
       </c>
-      <c r="EO4" t="s">
+      <c r="EQ4" t="s">
         <v>230</v>
       </c>
-      <c r="EP4" t="s">
+      <c r="ER4" t="s">
         <v>231</v>
       </c>
-      <c r="EQ4" t="s">
+      <c r="ES4" t="s">
         <v>232</v>
       </c>
-      <c r="ER4" t="s">
+      <c r="ET4" t="s">
         <v>233</v>
       </c>
-      <c r="ES4" t="s">
+      <c r="EU4" t="s">
         <v>234</v>
       </c>
-      <c r="ET4" t="s">
+      <c r="EV4" t="s">
         <v>235</v>
       </c>
-      <c r="EU4" t="s">
+      <c r="EW4" t="s">
         <v>236</v>
       </c>
-      <c r="EV4" t="s">
+      <c r="EX4" t="s">
         <v>237</v>
       </c>
-      <c r="EW4" t="s">
+      <c r="EY4" t="s">
         <v>238</v>
       </c>
-      <c r="EX4" t="s">
+      <c r="EZ4" t="s">
         <v>239</v>
       </c>
-      <c r="EY4" t="s">
+      <c r="FA4" t="s">
         <v>240</v>
       </c>
-      <c r="EZ4" t="s">
+      <c r="FB4" t="s">
         <v>241</v>
       </c>
-      <c r="FA4" t="s">
+      <c r="FC4" t="s">
         <v>242</v>
       </c>
-      <c r="FB4" t="s">
+      <c r="FD4" t="s">
         <v>243</v>
       </c>
-      <c r="FC4" t="s">
+      <c r="FE4" t="s">
         <v>244</v>
       </c>
-      <c r="FD4" t="s">
+      <c r="FF4" t="s">
         <v>245</v>
       </c>
-      <c r="FE4" t="s">
+      <c r="FG4" t="s">
         <v>246</v>
       </c>
-      <c r="FF4" t="s">
+      <c r="FH4" t="s">
         <v>247</v>
       </c>
-      <c r="FG4" t="s">
+      <c r="FI4" t="s">
         <v>248</v>
       </c>
-      <c r="FH4" t="s">
+      <c r="FJ4" t="s">
         <v>249</v>
       </c>
-      <c r="FI4" t="s">
+      <c r="FK4" t="s">
         <v>250</v>
       </c>
-      <c r="FJ4" t="s">
+      <c r="FL4" t="s">
         <v>251</v>
       </c>
-      <c r="FK4" t="s">
+      <c r="FM4" t="s">
         <v>252</v>
       </c>
-      <c r="FL4" t="s">
+      <c r="FN4" t="s">
         <v>253</v>
       </c>
-      <c r="FM4" t="s">
+      <c r="FO4" t="s">
         <v>254</v>
       </c>
-      <c r="FN4" t="s">
+      <c r="FP4" t="s">
         <v>255</v>
       </c>
-      <c r="FO4" t="s">
+      <c r="FQ4" t="s">
         <v>256</v>
       </c>
-      <c r="FP4" t="s">
+      <c r="FR4" t="s">
         <v>257</v>
       </c>
-      <c r="FQ4" t="s">
+      <c r="FS4" t="s">
         <v>258</v>
       </c>
-      <c r="FR4" t="s">
+      <c r="FT4" t="s">
         <v>259</v>
       </c>
-      <c r="FS4" t="s">
+      <c r="FU4" t="s">
         <v>260</v>
       </c>
-      <c r="FT4" t="s">
+      <c r="FV4" t="s">
         <v>261</v>
       </c>
-      <c r="FU4" t="s">
+      <c r="FW4" t="s">
         <v>262</v>
       </c>
-      <c r="FV4" t="s">
+      <c r="FX4" t="s">
         <v>263</v>
       </c>
-      <c r="FW4" t="s">
+      <c r="FY4" t="s">
         <v>264</v>
       </c>
-      <c r="FX4" t="s">
+      <c r="FZ4" t="s">
         <v>265</v>
       </c>
-      <c r="FY4" t="s">
+      <c r="GA4" t="s">
         <v>266</v>
       </c>
-      <c r="FZ4" t="s">
+      <c r="GB4" t="s">
         <v>267</v>
       </c>
-      <c r="GA4" t="s">
+      <c r="GC4" t="s">
         <v>268</v>
       </c>
-      <c r="GB4" t="s">
+      <c r="GD4" t="s">
         <v>269</v>
       </c>
-      <c r="GC4" t="s">
+      <c r="GE4" t="s">
         <v>270</v>
       </c>
-      <c r="GD4" t="s">
+      <c r="GF4" t="s">
         <v>271</v>
       </c>
-      <c r="GE4" t="s">
+      <c r="GG4" t="s">
         <v>272</v>
       </c>
-      <c r="GF4" t="s">
+      <c r="GH4" t="s">
         <v>273</v>
       </c>
-      <c r="GG4" t="s">
+      <c r="GI4" t="s">
         <v>274</v>
       </c>
-      <c r="GH4" t="s">
+      <c r="GJ4" t="s">
         <v>275</v>
       </c>
-      <c r="GI4" t="s">
+      <c r="GK4" t="s">
         <v>276</v>
       </c>
-      <c r="GJ4" t="s">
+      <c r="GL4" t="s">
         <v>277</v>
       </c>
-      <c r="GK4" t="s">
+      <c r="GM4" t="s">
         <v>278</v>
       </c>
-      <c r="GL4" t="s">
+      <c r="GN4" t="s">
         <v>279</v>
       </c>
-      <c r="GM4" t="s">
+      <c r="GO4" t="s">
         <v>280</v>
       </c>
-      <c r="GN4" t="s">
+      <c r="GP4" t="s">
         <v>281</v>
       </c>
-      <c r="GO4" t="s">
+      <c r="GQ4" t="s">
         <v>282</v>
       </c>
-      <c r="GP4" t="s">
+      <c r="GR4" t="s">
         <v>283</v>
       </c>
-      <c r="GQ4" t="s">
+      <c r="GS4" t="s">
         <v>284</v>
       </c>
-      <c r="GR4" t="s">
+      <c r="GT4" t="s">
         <v>285</v>
       </c>
-      <c r="GS4" t="s">
+      <c r="GU4" t="s">
         <v>286</v>
       </c>
-      <c r="GT4" t="s">
+      <c r="GV4" t="s">
         <v>287</v>
       </c>
-      <c r="GU4" t="s">
+      <c r="GW4" t="s">
         <v>288</v>
       </c>
-      <c r="GV4" t="s">
+      <c r="GX4" t="s">
         <v>289</v>
       </c>
-      <c r="GW4" t="s">
+      <c r="GY4" t="s">
         <v>290</v>
       </c>
-      <c r="GX4" t="s">
+      <c r="GZ4" t="s">
         <v>291</v>
       </c>
-      <c r="GY4" t="s">
+      <c r="HA4" t="s">
         <v>292</v>
       </c>
-      <c r="GZ4" t="s">
+      <c r="HB4" t="s">
         <v>293</v>
       </c>
-      <c r="HA4" t="s">
+      <c r="HC4" t="s">
         <v>294</v>
       </c>
-      <c r="HB4" t="s">
+      <c r="HD4" t="s">
         <v>295</v>
       </c>
-      <c r="HC4" t="s">
+      <c r="HE4" t="s">
         <v>296</v>
       </c>
-      <c r="HD4" t="s">
+      <c r="HF4" t="s">
         <v>297</v>
       </c>
-      <c r="HE4" t="s">
+      <c r="HG4" t="s">
         <v>298</v>
       </c>
-      <c r="HF4" t="s">
+      <c r="HH4" t="s">
         <v>299</v>
       </c>
-      <c r="HG4" t="s">
+      <c r="HI4" t="s">
         <v>300</v>
       </c>
-      <c r="HH4" t="s">
+      <c r="HJ4" t="s">
         <v>301</v>
       </c>
-      <c r="HI4" t="s">
+      <c r="HK4" t="s">
         <v>302</v>
       </c>
-      <c r="HJ4" t="s">
+      <c r="HL4" t="s">
         <v>303</v>
       </c>
-      <c r="HK4" t="s">
+      <c r="HM4" t="s">
         <v>304</v>
       </c>
-      <c r="HL4" t="s">
+      <c r="HN4" t="s">
         <v>305</v>
       </c>
-      <c r="HM4" t="s">
+      <c r="HO4" t="s">
         <v>306</v>
       </c>
-      <c r="HN4" t="s">
+      <c r="HP4" t="s">
         <v>307</v>
       </c>
-      <c r="HO4" t="s">
+      <c r="HQ4" t="s">
         <v>308</v>
       </c>
-      <c r="HP4" t="s">
+      <c r="HR4" t="s">
         <v>309</v>
       </c>
-      <c r="HQ4" t="s">
+      <c r="HS4" t="s">
         <v>310</v>
       </c>
-      <c r="HR4" t="s">
+      <c r="HT4" t="s">
         <v>311</v>
       </c>
-      <c r="HS4" t="s">
+      <c r="HU4" t="s">
         <v>312</v>
       </c>
-      <c r="HT4" t="s">
+      <c r="HV4" t="s">
         <v>313</v>
       </c>
-      <c r="HU4" t="s">
+      <c r="HW4" t="s">
         <v>314</v>
       </c>
-      <c r="HV4" t="s">
+      <c r="HX4" t="s">
         <v>315</v>
       </c>
-      <c r="HW4" t="s">
+      <c r="HY4" t="s">
         <v>316</v>
       </c>
-      <c r="HX4" t="s">
+      <c r="HZ4" t="s">
         <v>317</v>
       </c>
-      <c r="HY4" t="s">
+      <c r="IA4" t="s">
         <v>318</v>
       </c>
-      <c r="HZ4" t="s">
+      <c r="IB4" t="s">
         <v>319</v>
       </c>
-      <c r="IA4" t="s">
+      <c r="IC4" t="s">
         <v>320</v>
       </c>
-      <c r="IB4" t="s">
+      <c r="ID4" t="s">
         <v>321</v>
       </c>
-      <c r="IC4" t="s">
+      <c r="IE4" t="s">
         <v>322</v>
       </c>
-      <c r="ID4" t="s">
+      <c r="IF4" t="s">
         <v>323</v>
       </c>
-      <c r="IE4" t="s">
+      <c r="IG4" t="s">
         <v>324</v>
       </c>
-      <c r="IF4" t="s">
+      <c r="IH4" t="s">
         <v>325</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>326</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:242" x14ac:dyDescent="0.3">
@@ -4632,7 +4635,7 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="T5" t="s">
         <v>35</v>
@@ -5351,7 +5354,7 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T6" t="s">
         <v>38</v>
@@ -6070,13 +6073,13 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T7" t="s">
         <v>39</v>
       </c>
       <c r="U7" t="s">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="V7">
         <v>566728.5</v>
@@ -6753,7 +6756,7 @@
         <v>60.044400000000003</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -6765,13 +6768,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>43</v>
-      </c>
-      <c r="L8" t="s">
-        <v>44</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -6789,10 +6792,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V8">
         <v>107529.9</v>
@@ -7469,7 +7472,7 @@
         <v>60.080300000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -7481,13 +7484,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
         <v>47</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -7505,10 +7508,10 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V9">
         <v>93238.37</v>
@@ -8185,7 +8188,7 @@
         <v>61.0396</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
@@ -8197,13 +8200,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" t="s">
-        <v>54</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -8221,10 +8224,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V10">
         <v>59640.72</v>
@@ -8901,7 +8904,7 @@
         <v>64.015699999999995</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -8913,13 +8916,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>58</v>
-      </c>
-      <c r="L11" t="s">
-        <v>59</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -8937,10 +8940,10 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V11">
         <v>41209.14</v>
@@ -9617,7 +9620,7 @@
         <v>64.015799999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -9629,13 +9632,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
         <v>57</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>58</v>
-      </c>
-      <c r="L12" t="s">
-        <v>59</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -9653,10 +9656,10 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V12">
         <v>19851.16</v>
@@ -10372,10 +10375,10 @@
         <v>-1</v>
       </c>
       <c r="S13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V13">
         <v>501741.8</v>
@@ -11091,13 +11094,13 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U14" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="V14">
         <v>74400.13</v>
@@ -11774,7 +11777,7 @@
         <v>72.080799999999996</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -11786,13 +11789,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" t="s">
         <v>66</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" t="s">
-        <v>68</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -11810,10 +11813,10 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V15">
         <v>1264974</v>
@@ -12490,13 +12493,13 @@
         <v>74.057900000000004</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16">
         <v>0.3049327</v>
@@ -12505,13 +12508,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" t="s">
         <v>72</v>
-      </c>
-      <c r="K16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" t="s">
-        <v>74</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -12529,10 +12532,10 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V16">
         <v>700309.6</v>
@@ -13209,13 +13212,13 @@
         <v>83.049000000000007</v>
       </c>
       <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
         <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
       </c>
       <c r="G17">
         <v>0.79820630000000004</v>
@@ -13224,13 +13227,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" t="s">
         <v>79</v>
-      </c>
-      <c r="K17" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" t="s">
-        <v>81</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -13248,10 +13251,10 @@
         <v>-1</v>
       </c>
       <c r="S17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V17">
         <v>1166844</v>
@@ -13967,10 +13970,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="T18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V18">
         <v>230539.9</v>
@@ -14686,10 +14689,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V19">
         <v>28100.83</v>
@@ -15366,7 +15369,7 @@
         <v>84.080699999999993</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -15378,13 +15381,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" t="s">
         <v>86</v>
-      </c>
-      <c r="K20" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" t="s">
-        <v>88</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -15402,10 +15405,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V20">
         <v>90258.77</v>
@@ -16121,10 +16124,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V21">
         <v>222917.2</v>
@@ -16801,7 +16804,7 @@
         <v>86.096299999999999</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
         <v>31</v>
@@ -16813,13 +16816,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" t="s">
         <v>92</v>
-      </c>
-      <c r="K22" t="s">
-        <v>93</v>
-      </c>
-      <c r="L22" t="s">
-        <v>94</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -16837,10 +16840,10 @@
         <v>-1</v>
       </c>
       <c r="S22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V22">
         <v>227357.2</v>
@@ -17556,10 +17559,10 @@
         <v>-1</v>
       </c>
       <c r="S23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="T23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V23">
         <v>218213</v>
@@ -18236,7 +18239,7 @@
         <v>88.039500000000004</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
         <v>31</v>
@@ -18248,13 +18251,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" t="s">
         <v>98</v>
-      </c>
-      <c r="K24" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" t="s">
-        <v>100</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -18272,10 +18275,10 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="T24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V24">
         <v>218213</v>
@@ -18952,7 +18955,7 @@
         <v>89.107399999999998</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
         <v>31</v>
@@ -18964,13 +18967,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" t="s">
         <v>103</v>
-      </c>
-      <c r="K25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L25" t="s">
-        <v>105</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -18988,10 +18991,10 @@
         <v>-1</v>
       </c>
       <c r="S25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V25">
         <v>48543.46</v>
@@ -19872,12 +19875,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20027,15 +20027,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4C25D04-767B-4978-816E-4424818623DD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D13DB352-349E-442E-A6C7-988FB8BED4D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20059,10 +20063,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D13DB352-349E-442E-A6C7-988FB8BED4D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4C25D04-767B-4978-816E-4424818623DD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>